--- a/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1CA374-9A5F-476D-A433-EAB2391C92A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{251F85E4-D86A-490A-B37E-4EC06B5FA8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D63B4B67-4F17-4AFC-9358-5DC6BB6ADD7E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8566C198-3841-49FE-BD1A-08F0D43F26F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>58,28%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,52%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,93%</t>
+    <t>21,16%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,19 +164,19 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>16,72%</t>
+    <t>17,98%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>8,0%</t>
+    <t>8,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -188,97 +188,97 @@
     <t>71,64%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -287,300 +287,303 @@
     <t>72,41%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>73,4%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>5,27%</t>
   </si>
   <si>
@@ -590,118 +593,112 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,81%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>14,72%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,7%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1116,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1F2DFD-675A-4206-8B3F-BF3F37FCDA17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA37F7B-06F7-4B50-9578-B860591D2D17}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2011,13 +2008,13 @@
         <v>323051</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>185</v>
@@ -2026,13 +2023,13 @@
         <v>182892</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>483</v>
@@ -2041,13 +2038,13 @@
         <v>505943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2059,13 @@
         <v>55014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2077,13 +2074,13 @@
         <v>23343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -2092,13 +2089,13 @@
         <v>78357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2110,13 @@
         <v>16210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2128,13 +2125,13 @@
         <v>3454</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -2143,13 +2140,13 @@
         <v>19664</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2161,13 @@
         <v>12159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2179,13 +2176,13 @@
         <v>2325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2194,13 +2191,13 @@
         <v>14484</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,7 +2253,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2268,13 +2265,13 @@
         <v>413630</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>313</v>
@@ -2283,13 +2280,13 @@
         <v>331236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>738</v>
@@ -2298,13 +2295,13 @@
         <v>744866</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2316,13 @@
         <v>70303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2334,13 +2331,13 @@
         <v>32829</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -2349,13 +2346,13 @@
         <v>103132</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2367,13 @@
         <v>52532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -2385,13 +2382,13 @@
         <v>16783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -2400,13 +2397,13 @@
         <v>69315</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2418,13 @@
         <v>19470</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2436,13 +2433,13 @@
         <v>7274</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
@@ -2451,13 +2448,13 @@
         <v>26744</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2522,13 @@
         <v>1408996</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>836</v>
@@ -2540,13 +2537,13 @@
         <v>871937</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>2182</v>
@@ -2555,13 +2552,13 @@
         <v>2280933</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2573,13 @@
         <v>314662</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="H30" s="7">
         <v>96</v>
@@ -2633,7 +2630,7 @@
         <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -2642,13 +2639,13 @@
         <v>35251</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>162</v>
@@ -2657,13 +2654,13 @@
         <v>164547</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2675,13 @@
         <v>52460</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -2693,13 +2690,13 @@
         <v>14587</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -2708,13 +2705,13 @@
         <v>67047</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2767,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251F85E4-D86A-490A-B37E-4EC06B5FA8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E22F35-9098-4070-BE9A-892165798AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8566C198-3841-49FE-BD1A-08F0D43F26F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD41EFC2-B9B4-4822-B7E4-6BC0279F1FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>58,28%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,52%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,571 +134,577 @@
     <t>9,37%</t>
   </si>
   <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1113,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA37F7B-06F7-4B50-9578-B860591D2D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391743D-C16B-4897-84C4-B2F24ABDDF9F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -1626,13 +1632,13 @@
         <v>23404</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1653,13 @@
         <v>983</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1662,13 +1668,13 @@
         <v>977</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1677,13 +1683,13 @@
         <v>1960</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1745,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1757,13 @@
         <v>404718</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -1766,13 +1772,13 @@
         <v>225572</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>576</v>
@@ -1781,13 +1787,13 @@
         <v>630290</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1808,13 @@
         <v>102600</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>23</v>
@@ -1817,13 +1823,13 @@
         <v>24825</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>118</v>
@@ -1832,13 +1838,13 @@
         <v>127425</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1859,13 @@
         <v>32771</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1868,13 +1874,13 @@
         <v>13176</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -1883,13 +1889,13 @@
         <v>45947</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1910,13 @@
         <v>18807</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1919,13 +1925,13 @@
         <v>3010</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -1934,13 +1940,13 @@
         <v>21817</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,7 +2002,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2008,13 +2014,13 @@
         <v>323051</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>185</v>
@@ -2023,13 +2029,13 @@
         <v>182892</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>483</v>
@@ -2038,13 +2044,13 @@
         <v>505943</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2065,13 @@
         <v>55014</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2074,13 +2080,13 @@
         <v>23343</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -2089,13 +2095,13 @@
         <v>78357</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2116,13 @@
         <v>16210</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2125,13 +2131,13 @@
         <v>3454</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -2140,13 +2146,13 @@
         <v>19664</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2167,13 @@
         <v>12159</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2176,13 +2182,13 @@
         <v>2325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2191,13 +2197,13 @@
         <v>14484</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2259,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2271,13 @@
         <v>413630</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>313</v>
@@ -2280,13 +2286,13 @@
         <v>331236</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>738</v>
@@ -2295,13 +2301,13 @@
         <v>744866</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>70303</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2331,13 +2337,13 @@
         <v>32829</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -2346,13 +2352,13 @@
         <v>103132</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2373,13 @@
         <v>52532</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -2382,10 +2388,10 @@
         <v>16783</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>176</v>
@@ -2454,7 +2460,7 @@
         <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2528,13 @@
         <v>1408996</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>836</v>
@@ -2537,13 +2543,13 @@
         <v>871937</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>2182</v>
@@ -2552,13 +2558,13 @@
         <v>2280933</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2579,13 @@
         <v>314662</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H30" s="7">
         <v>96</v>
@@ -2642,10 +2648,10 @@
         <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>162</v>
@@ -2654,13 +2660,13 @@
         <v>164547</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2681,13 @@
         <v>52460</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -2690,13 +2696,13 @@
         <v>14587</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -2705,13 +2711,13 @@
         <v>67047</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,7 +2773,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E22F35-9098-4070-BE9A-892165798AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71363D26-E97C-463E-80E1-3D056C22A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD41EFC2-B9B4-4822-B7E4-6BC0279F1FB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E6AF03-1262-4247-8F87-43D92AC16122}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>58,28%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,52%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -146,565 +146,562 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>17,93%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>6,56%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391743D-C16B-4897-84C4-B2F24ABDDF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCB6C4E-186D-467A-829F-C4B47A68BD54}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1623,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -1632,13 +1629,13 @@
         <v>23404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1650,13 @@
         <v>983</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1668,13 +1665,13 @@
         <v>977</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1683,13 +1680,13 @@
         <v>1960</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1742,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1754,13 @@
         <v>404718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -1772,13 +1769,13 @@
         <v>225572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>576</v>
@@ -1787,13 +1784,13 @@
         <v>630290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1805,13 @@
         <v>102600</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>23</v>
@@ -1823,13 +1820,13 @@
         <v>24825</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>118</v>
@@ -1838,13 +1835,13 @@
         <v>127425</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1856,13 @@
         <v>32771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1874,13 +1871,13 @@
         <v>13176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -1889,13 +1886,13 @@
         <v>45947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1907,13 @@
         <v>18807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1925,13 +1922,13 @@
         <v>3010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -1940,13 +1937,13 @@
         <v>21817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +1999,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2014,7 +2011,7 @@
         <v>323051</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>119</v>
@@ -2101,7 +2098,7 @@
         <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2113,13 @@
         <v>16210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2131,13 +2128,13 @@
         <v>3454</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -2146,13 +2143,13 @@
         <v>19664</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2164,13 @@
         <v>12159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2182,13 +2179,13 @@
         <v>2325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2355,10 +2352,10 @@
         <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2370,13 @@
         <v>52532</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -2388,13 +2385,13 @@
         <v>16783</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -2403,13 +2400,13 @@
         <v>69315</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2421,13 @@
         <v>19470</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2439,13 +2436,13 @@
         <v>7274</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
@@ -2454,13 +2451,13 @@
         <v>26744</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2633,7 @@
         <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -2645,10 +2642,10 @@
         <v>35251</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>210</v>
@@ -2702,7 +2699,7 @@
         <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -2711,13 +2708,13 @@
         <v>67047</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2770,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71363D26-E97C-463E-80E1-3D056C22A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C294AE73-EC25-4693-8892-52EBD637ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E6AF03-1262-4247-8F87-43D92AC16122}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6FCD49BB-7499-496A-B979-E12D316BB5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -65,601 +65,511 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>8,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
   </si>
   <si>
     <t>3,45%</t>
@@ -1116,8 +1026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCB6C4E-186D-467A-829F-C4B47A68BD54}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB81E6D-BDFD-4F19-A892-680674D74564}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1234,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="D4" s="7">
-        <v>33178</v>
+        <v>267597</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1249,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7">
-        <v>19957</v>
+        <v>132237</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1264,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>385</v>
       </c>
       <c r="N4" s="7">
-        <v>53134</v>
+        <v>399833</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1285,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
-        <v>17373</v>
+        <v>86745</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1300,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>2651</v>
+        <v>20453</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1315,10 +1225,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>20024</v>
+        <v>107198</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1336,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>5333</v>
+        <v>27783</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1351,10 +1261,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>885</v>
+        <v>1838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1366,10 +1276,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>6218</v>
+        <v>29622</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1387,10 +1297,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1042</v>
+        <v>2025</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1402,10 +1312,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1000</v>
+        <v>1977</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1417,19 +1327,19 @@
         <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2042</v>
+        <v>4002</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,102 +1348,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>227</v>
+        <v>366</v>
       </c>
       <c r="D9" s="7">
-        <v>234418</v>
+        <v>404718</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="I9" s="7">
-        <v>112280</v>
+        <v>225572</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>333</v>
+        <v>576</v>
       </c>
       <c r="N9" s="7">
-        <v>346698</v>
+        <v>630290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,49 +1452,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>102600</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>24825</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="7">
+        <v>118</v>
+      </c>
+      <c r="N10" s="7">
+        <v>127425</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="7">
-        <v>69372</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17802</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="7">
-        <v>85</v>
-      </c>
-      <c r="N10" s="7">
-        <v>87173</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,49 +1503,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>22450</v>
+        <v>32771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>953</v>
+        <v>13176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>23404</v>
+        <v>45947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,49 +1554,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>983</v>
+        <v>18807</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>977</v>
+        <v>3010</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>1960</v>
+        <v>21817</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,102 +1605,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>266584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>755</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>825479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="D14" s="7">
-        <v>404718</v>
+        <v>323051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="I14" s="7">
-        <v>225572</v>
+        <v>182892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>576</v>
+        <v>483</v>
       </c>
       <c r="N14" s="7">
-        <v>630290</v>
+        <v>505943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,49 +1709,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>55014</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="7">
-        <v>102600</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>24825</v>
+        <v>23343</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="N15" s="7">
-        <v>127425</v>
+        <v>78357</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,49 +1760,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>32771</v>
+        <v>16210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>13176</v>
+        <v>3454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>45947</v>
+        <v>19664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,49 +1811,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>18807</v>
+        <v>12159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>3010</v>
+        <v>2325</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>21817</v>
+        <v>14484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,102 +1862,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>266584</v>
+        <v>212014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>755</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>825479</v>
+        <v>618448</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>298</v>
+        <v>425</v>
       </c>
       <c r="D19" s="7">
-        <v>323051</v>
+        <v>413630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="I19" s="7">
-        <v>182892</v>
+        <v>331236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
-        <v>483</v>
+        <v>738</v>
       </c>
       <c r="N19" s="7">
-        <v>505943</v>
+        <v>744866</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,49 +1966,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7">
-        <v>55014</v>
+        <v>70303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I20" s="7">
-        <v>23343</v>
+        <v>32829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N20" s="7">
-        <v>78357</v>
+        <v>103132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,49 +2017,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7">
-        <v>16210</v>
+        <v>52532</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I21" s="7">
-        <v>3454</v>
+        <v>16783</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="N21" s="7">
-        <v>19664</v>
+        <v>69315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,49 +2068,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>12159</v>
+        <v>19470</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>2325</v>
+        <v>7274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N22" s="7">
-        <v>14484</v>
+        <v>26744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,102 +2119,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>555935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="I23" s="7">
-        <v>212014</v>
+        <v>388123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>941</v>
       </c>
       <c r="N23" s="7">
-        <v>618448</v>
+        <v>944058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>425</v>
+        <v>1346</v>
       </c>
       <c r="D24" s="7">
-        <v>413630</v>
+        <v>1408996</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
-        <v>313</v>
+        <v>836</v>
       </c>
       <c r="I24" s="7">
-        <v>331236</v>
+        <v>871937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
-        <v>738</v>
+        <v>2182</v>
       </c>
       <c r="N24" s="7">
-        <v>744866</v>
+        <v>2280933</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,49 +2223,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="D25" s="7">
-        <v>70303</v>
+        <v>314662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I25" s="7">
-        <v>32829</v>
+        <v>101450</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="N25" s="7">
-        <v>103132</v>
+        <v>416112</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,49 +2274,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D26" s="7">
-        <v>52532</v>
+        <v>129296</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I26" s="7">
-        <v>16783</v>
+        <v>35251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="N26" s="7">
-        <v>69315</v>
+        <v>164547</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,49 +2325,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7">
-        <v>19470</v>
+        <v>52460</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I27" s="7">
-        <v>7274</v>
+        <v>14587</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N27" s="7">
-        <v>26744</v>
+        <v>67047</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,319 +2376,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>575</v>
+        <v>1824</v>
       </c>
       <c r="D28" s="7">
-        <v>555935</v>
+        <v>1905414</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>366</v>
+        <v>979</v>
       </c>
       <c r="I28" s="7">
-        <v>388123</v>
+        <v>1023226</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>941</v>
+        <v>2803</v>
       </c>
       <c r="N28" s="7">
-        <v>944058</v>
+        <v>2928640</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1346</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1408996</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" s="7">
-        <v>836</v>
-      </c>
-      <c r="I29" s="7">
-        <v>871937</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="A29" t="s">
         <v>192</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2182</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2280933</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>299</v>
-      </c>
-      <c r="D30" s="7">
-        <v>314662</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="7">
-        <v>96</v>
-      </c>
-      <c r="I30" s="7">
-        <v>101450</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M30" s="7">
-        <v>395</v>
-      </c>
-      <c r="N30" s="7">
-        <v>416112</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>129</v>
-      </c>
-      <c r="D31" s="7">
-        <v>129296</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
-        <v>33</v>
-      </c>
-      <c r="I31" s="7">
-        <v>35251</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M31" s="7">
-        <v>162</v>
-      </c>
-      <c r="N31" s="7">
-        <v>164547</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>50</v>
-      </c>
-      <c r="D32" s="7">
-        <v>52460</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H32" s="7">
-        <v>14</v>
-      </c>
-      <c r="I32" s="7">
-        <v>14587</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M32" s="7">
-        <v>64</v>
-      </c>
-      <c r="N32" s="7">
-        <v>67047</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1824</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1905414</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1023226</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2803</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2928640</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
